--- a/2022/Realme/APRIL/25.04.2022/realme Bank Statement April-20222.xlsx
+++ b/2022/Realme/APRIL/25.04.2022/realme Bank Statement April-20222.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -416,12 +416,6 @@
     <t>17.04.2022</t>
   </si>
   <si>
-    <t>Saife(RSM)</t>
-  </si>
-  <si>
-    <t>C25s</t>
-  </si>
-  <si>
     <t>18.04.2022</t>
   </si>
   <si>
@@ -440,13 +434,7 @@
     <t>22.04.2022</t>
   </si>
   <si>
-    <t>Shaha Enterprise</t>
-  </si>
-  <si>
     <t>23.04.2022</t>
-  </si>
-  <si>
-    <t>Date:24.04.2022</t>
   </si>
   <si>
     <t>24.04.2022</t>
@@ -455,7 +443,16 @@
     <t>N=Shaha Realme Showroom</t>
   </si>
   <si>
-    <t>N=Rofiqul</t>
+    <t>25.04.2022</t>
+  </si>
+  <si>
+    <t>Moom Telecom</t>
+  </si>
+  <si>
+    <t>Date:25.04.2022</t>
+  </si>
+  <si>
+    <t>D=Moom Telecom</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1827,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2589,12 +2586,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,18 +2595,66 @@
     <xf numFmtId="21" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2628,39 +2667,6 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="36" fillId="35" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2765,21 +2771,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3313,7 +3304,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3331,21 +3322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="271" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -3726,7 +3717,7 @@
     <row r="22" spans="1:10">
       <c r="A22" s="15"/>
       <c r="B22" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
@@ -3747,7 +3738,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="15"/>
       <c r="B23" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C23" s="19">
         <v>310000</v>
@@ -3768,7 +3759,7 @@
     <row r="24" spans="1:10">
       <c r="A24" s="15"/>
       <c r="B24" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="19">
         <v>700000</v>
@@ -3789,7 +3780,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="15"/>
       <c r="B25" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="258">
         <v>2500000</v>
@@ -3802,7 +3793,7 @@
         <v>9807</v>
       </c>
       <c r="F25" s="260" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3812,7 +3803,7 @@
     <row r="26" spans="1:10">
       <c r="A26" s="15"/>
       <c r="B26" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="19">
         <v>900000</v>
@@ -3833,7 +3824,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="15"/>
       <c r="B27" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="19">
         <v>0</v>
@@ -3854,7 +3845,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="15"/>
       <c r="B28" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C28" s="19">
         <v>0</v>
@@ -3875,7 +3866,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="15"/>
       <c r="B29" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C29" s="19">
         <v>110000</v>
@@ -3896,7 +3887,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="15"/>
       <c r="B30" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C30" s="19">
         <v>740000</v>
@@ -3916,12 +3907,18 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="15"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="19">
+        <v>830000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>825000</v>
+      </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3936,7 +3933,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3951,7 +3948,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3966,7 +3963,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3981,7 +3978,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3996,7 +3993,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4011,7 +4008,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4026,7 +4023,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4041,7 +4038,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -4056,7 +4053,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="15"/>
@@ -4071,7 +4068,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="15"/>
@@ -4086,7 +4083,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="15"/>
@@ -4098,7 +4095,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="15"/>
@@ -4110,7 +4107,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="15"/>
@@ -4122,7 +4119,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15"/>
@@ -4134,7 +4131,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="15"/>
@@ -4146,7 +4143,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="15"/>
@@ -4157,7 +4154,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="15"/>
@@ -4168,7 +4165,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="15"/>
@@ -4179,7 +4176,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
-        <v>19807</v>
+        <v>24807</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="15"/>
@@ -4188,11 +4185,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>13567807</v>
+        <v>14397807</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>13548000</v>
+        <v>14373000</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="1"/>
@@ -4228,7 +4225,7 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4246,67 +4243,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="272"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
+      <c r="N1" s="272"/>
+      <c r="O1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="273" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="273"/>
+      <c r="K2" s="273"/>
+      <c r="L2" s="273"/>
+      <c r="M2" s="273"/>
+      <c r="N2" s="273"/>
+      <c r="O2" s="273"/>
+      <c r="P2" s="273"/>
+      <c r="Q2" s="273"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="274" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="279"/>
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="275"/>
+      <c r="P3" s="275"/>
+      <c r="Q3" s="276"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4315,52 +4312,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="279" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="281" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="281" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="269" t="s">
+      <c r="E4" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="269" t="s">
+      <c r="F4" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="269" t="s">
+      <c r="G4" s="281" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="269" t="s">
+      <c r="H4" s="281" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="269" t="s">
+      <c r="I4" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="269" t="s">
+      <c r="J4" s="281" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="269" t="s">
+      <c r="K4" s="281" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="269" t="s">
+      <c r="L4" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="269" t="s">
+      <c r="M4" s="281" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="273" t="s">
+      <c r="N4" s="287" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="271" t="s">
+      <c r="O4" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="283" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4373,22 +4370,22 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="270"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="270"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="272"/>
-      <c r="P5" s="285"/>
+      <c r="A5" s="278"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="282"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="288"/>
+      <c r="O5" s="286"/>
+      <c r="P5" s="284"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -4919,7 +4916,7 @@
     </row>
     <row r="20" spans="1:23" s="9" customFormat="1">
       <c r="A20" s="98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="106"/>
       <c r="C20" s="99"/>
@@ -4957,7 +4954,7 @@
     </row>
     <row r="21" spans="1:23" s="9" customFormat="1">
       <c r="A21" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="106">
         <v>500</v>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
       <c r="A22" s="98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="106"/>
       <c r="C22" s="99"/>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="23" spans="1:23" s="114" customFormat="1">
       <c r="A23" s="98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B23" s="106"/>
       <c r="C23" s="99"/>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="24" spans="1:23" s="9" customFormat="1">
       <c r="A24" s="98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="106">
         <v>500</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="25" spans="1:23" s="114" customFormat="1">
       <c r="A25" s="98" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B25" s="106"/>
       <c r="C25" s="99"/>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="26" spans="1:23" s="9" customFormat="1">
       <c r="A26" s="98" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B26" s="106"/>
       <c r="C26" s="99"/>
@@ -5155,16 +5152,28 @@
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:23" s="9" customFormat="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="106"/>
+      <c r="A27" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="106">
+        <v>500</v>
+      </c>
       <c r="C27" s="99"/>
-      <c r="D27" s="107"/>
+      <c r="D27" s="107">
+        <v>165</v>
+      </c>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
+      <c r="G27" s="107">
+        <v>50</v>
+      </c>
       <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
+      <c r="I27" s="107">
+        <v>180</v>
+      </c>
+      <c r="J27" s="107">
+        <v>160</v>
+      </c>
       <c r="K27" s="107"/>
       <c r="L27" s="107"/>
       <c r="M27" s="137"/>
@@ -5173,7 +5182,7 @@
       <c r="P27" s="109"/>
       <c r="Q27" s="103">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="R27" s="104"/>
       <c r="S27" s="4"/>
@@ -5400,7 +5409,7 @@
       </c>
       <c r="B37" s="124">
         <f>SUM(B6:B36)</f>
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="C37" s="125">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
@@ -5408,7 +5417,7 @@
       </c>
       <c r="D37" s="125">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>825</v>
       </c>
       <c r="E37" s="125">
         <f t="shared" si="1"/>
@@ -5420,7 +5429,7 @@
       </c>
       <c r="G37" s="125">
         <f>SUM(G6:G36)</f>
-        <v>9586</v>
+        <v>9636</v>
       </c>
       <c r="H37" s="125">
         <f t="shared" si="1"/>
@@ -5428,11 +5437,11 @@
       </c>
       <c r="I37" s="125">
         <f t="shared" si="1"/>
-        <v>2970</v>
+        <v>3150</v>
       </c>
       <c r="J37" s="125">
         <f t="shared" si="1"/>
-        <v>3040</v>
+        <v>3200</v>
       </c>
       <c r="K37" s="125">
         <f t="shared" si="1"/>
@@ -5460,7 +5469,7 @@
       </c>
       <c r="Q37" s="127">
         <f>SUM(Q6:Q36)</f>
-        <v>34776</v>
+        <v>35831</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7462,6 +7471,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7478,9 +7490,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7492,8 +7501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -7519,14 +7528,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="296" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="295"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="298"/>
       <c r="L1" s="38"/>
       <c r="M1" s="141"/>
       <c r="N1" s="141"/>
@@ -7579,14 +7588,14 @@
       <c r="BI1" s="141"/>
     </row>
     <row r="2" spans="1:61" ht="15" customHeight="1">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
       <c r="L2" s="38"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
@@ -7639,14 +7648,14 @@
       <c r="BI2" s="141"/>
     </row>
     <row r="3" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="300" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="299"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
       <c r="K3" s="141"/>
       <c r="L3" s="38"/>
       <c r="M3" s="141"/>
@@ -9547,11 +9556,11 @@
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="43">
-        <v>-830260</v>
+        <v>-739470</v>
       </c>
       <c r="E31" s="43">
         <f t="shared" si="0"/>
-        <v>-830260</v>
+        <v>-739470</v>
       </c>
       <c r="F31" s="43"/>
       <c r="G31" s="60"/>
@@ -9690,11 +9699,11 @@
       <c r="D33" s="43"/>
       <c r="E33" s="43">
         <f>SUM(E5:E32)</f>
-        <v>-830260</v>
+        <v>-739470</v>
       </c>
       <c r="F33" s="43">
         <f>B33-E33</f>
-        <v>830260</v>
+        <v>739470</v>
       </c>
       <c r="G33" s="60"/>
       <c r="H33" s="147"/>
@@ -9816,13 +9825,13 @@
       <c r="BI34" s="141"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="303" t="s">
+      <c r="A35" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="304"/>
-      <c r="C35" s="304"/>
-      <c r="D35" s="304"/>
-      <c r="E35" s="305"/>
+      <c r="B35" s="307"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="307"/>
+      <c r="E35" s="308"/>
       <c r="F35" s="43"/>
       <c r="G35" s="60"/>
       <c r="H35" s="60"/>
@@ -9881,15 +9890,15 @@
       <c r="BI35" s="141"/>
     </row>
     <row r="36" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A36" s="300" t="s">
+      <c r="A36" s="303" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="301"/>
-      <c r="C36" s="301"/>
-      <c r="D36" s="302"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="305"/>
       <c r="E36" s="171">
         <f>F33-C119+K122</f>
-        <v>0</v>
+        <v>-117460</v>
       </c>
       <c r="F36" s="170"/>
       <c r="G36" s="60"/>
@@ -9952,13 +9961,13 @@
       <c r="A37" s="247" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="262" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="248">
         <v>1800</v>
       </c>
-      <c r="D37" s="265" t="s">
+      <c r="D37" s="263" t="s">
         <v>49</v>
       </c>
       <c r="E37" s="48"/>
@@ -10314,7 +10323,7 @@
         <v>297000</v>
       </c>
       <c r="D42" s="226" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F42" s="165"/>
       <c r="G42" s="67"/>
@@ -10387,15 +10396,15 @@
         <v>91</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="300" t="s">
+      <c r="F43" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="301"/>
-      <c r="H43" s="301"/>
-      <c r="I43" s="301"/>
-      <c r="J43" s="301"/>
-      <c r="K43" s="301"/>
-      <c r="L43" s="302"/>
+      <c r="G43" s="304"/>
+      <c r="H43" s="304"/>
+      <c r="I43" s="304"/>
+      <c r="J43" s="304"/>
+      <c r="K43" s="304"/>
+      <c r="L43" s="305"/>
       <c r="M43" s="141"/>
       <c r="N43" s="141"/>
       <c r="O43" s="141"/>
@@ -10454,7 +10463,7 @@
       <c r="C44" s="224">
         <v>87500</v>
       </c>
-      <c r="D44" s="266" t="s">
+      <c r="D44" s="264" t="s">
         <v>97</v>
       </c>
       <c r="E44" s="47"/>
@@ -10516,16 +10525,14 @@
     </row>
     <row r="45" spans="1:61" ht="14.25">
       <c r="A45" s="223" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="223" t="s">
-        <v>109</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B45" s="223"/>
       <c r="C45" s="224">
-        <v>6000</v>
-      </c>
-      <c r="D45" s="226" t="s">
-        <v>107</v>
+        <v>133240</v>
+      </c>
+      <c r="D45" s="225" t="s">
+        <v>117</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="230"/>
@@ -10586,14 +10593,14 @@
     </row>
     <row r="46" spans="1:61" ht="14.25">
       <c r="A46" s="223" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B46" s="223"/>
       <c r="C46" s="224">
-        <v>155050</v>
+        <v>10000</v>
       </c>
       <c r="D46" s="225" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="232"/>
@@ -10653,15 +10660,17 @@
       <c r="BI46" s="141"/>
     </row>
     <row r="47" spans="1:61" ht="14.25">
-      <c r="A47" s="223" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="223"/>
+      <c r="A47" s="249" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="223" t="s">
+        <v>62</v>
+      </c>
       <c r="C47" s="224">
-        <v>32280</v>
-      </c>
-      <c r="D47" s="225" t="s">
-        <v>119</v>
+        <v>31990</v>
+      </c>
+      <c r="D47" s="226" t="s">
+        <v>77</v>
       </c>
       <c r="E47" s="47" t="s">
         <v>11</v>
@@ -10724,14 +10733,16 @@
     </row>
     <row r="48" spans="1:61" ht="14.25">
       <c r="A48" s="223" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="223"/>
+        <v>58</v>
+      </c>
+      <c r="B48" s="223" t="s">
+        <v>62</v>
+      </c>
       <c r="C48" s="224">
-        <v>10000</v>
+        <v>31990</v>
       </c>
       <c r="D48" s="225" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="232" t="s">
@@ -10793,17 +10804,15 @@
       <c r="BI48" s="141"/>
     </row>
     <row r="49" spans="1:61" ht="14.25">
-      <c r="A49" s="249" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="223" t="s">
-        <v>62</v>
-      </c>
+      <c r="A49" s="223" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="223"/>
       <c r="C49" s="224">
-        <v>31990</v>
-      </c>
-      <c r="D49" s="226" t="s">
-        <v>77</v>
+        <v>117460</v>
+      </c>
+      <c r="D49" s="225" t="s">
+        <v>117</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="232"/>
@@ -10863,18 +10872,10 @@
       <c r="BI49" s="141"/>
     </row>
     <row r="50" spans="1:61" ht="14.25">
-      <c r="A50" s="223" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="223" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="224">
-        <v>31990</v>
-      </c>
-      <c r="D50" s="225" t="s">
-        <v>77</v>
-      </c>
+      <c r="A50" s="223"/>
+      <c r="B50" s="223"/>
+      <c r="C50" s="224"/>
+      <c r="D50" s="225"/>
       <c r="E50" s="47"/>
       <c r="F50" s="232"/>
       <c r="G50" s="144"/>
@@ -10933,16 +10934,10 @@
       <c r="BI50" s="141"/>
     </row>
     <row r="51" spans="1:61" ht="14.25">
-      <c r="A51" s="223" t="s">
-        <v>73</v>
-      </c>
+      <c r="A51" s="223"/>
       <c r="B51" s="223"/>
-      <c r="C51" s="224">
-        <v>30700</v>
-      </c>
-      <c r="D51" s="225" t="s">
-        <v>119</v>
-      </c>
+      <c r="C51" s="224"/>
+      <c r="D51" s="226"/>
       <c r="E51" s="47"/>
       <c r="F51" s="232"/>
       <c r="G51" s="144"/>
@@ -12013,10 +12008,10 @@
       <c r="C68" s="207"/>
       <c r="D68" s="212"/>
       <c r="E68" s="53"/>
-      <c r="F68" s="286" t="s">
+      <c r="F68" s="289" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="287"/>
+      <c r="G68" s="290"/>
       <c r="H68" s="142"/>
       <c r="I68" s="142"/>
       <c r="J68" s="74" t="s">
@@ -15204,13 +15199,13 @@
       <c r="BI118" s="141"/>
     </row>
     <row r="119" spans="1:61" ht="15.75" thickBot="1">
-      <c r="A119" s="288" t="s">
+      <c r="A119" s="291" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="289"/>
+      <c r="B119" s="292"/>
       <c r="C119" s="221">
         <f>SUM(C37:C118)</f>
-        <v>830260</v>
+        <v>856930</v>
       </c>
       <c r="D119" s="220"/>
       <c r="F119" s="238"/>
@@ -15333,10 +15328,10 @@
       <c r="BI120" s="141"/>
     </row>
     <row r="121" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A121" s="290" t="s">
+      <c r="A121" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="B121" s="291"/>
+      <c r="B121" s="294"/>
       <c r="C121" s="169" t="s">
         <v>11</v>
       </c>
@@ -15992,8 +15987,8 @@
       <c r="N155" s="143"/>
     </row>
     <row r="156" spans="5:14">
-      <c r="F156" s="292"/>
-      <c r="G156" s="292"/>
+      <c r="F156" s="295"/>
+      <c r="G156" s="295"/>
       <c r="H156" s="141"/>
       <c r="I156" s="51"/>
       <c r="J156" s="38"/>
@@ -16623,7 +16618,7 @@
       <c r="J232" s="38"/>
     </row>
   </sheetData>
-  <sortState ref="A37:D51">
+  <sortState ref="A38:D50">
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="10">
@@ -16652,8 +16647,8 @@
   </sheetPr>
   <dimension ref="A1:AB219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16678,35 +16673,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="309" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="308"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="311"/>
       <c r="F1" s="184"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="318" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="317"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="320"/>
       <c r="F2" s="184"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="309" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="311"/>
+      <c r="A3" s="312" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="314"/>
       <c r="F3" s="184"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -16732,13 +16727,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="318" t="s">
+      <c r="A4" s="321" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="320"/>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="323"/>
       <c r="F4" s="184"/>
       <c r="G4" s="251" t="s">
         <v>79</v>
@@ -16776,7 +16771,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="179">
-        <v>12795650</v>
+        <v>12984610</v>
       </c>
       <c r="F5" s="184"/>
       <c r="G5" s="252">
@@ -16808,14 +16803,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="156">
-        <v>147557.6</v>
+        <v>161796.20000000001</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="152" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="157">
-        <v>9807</v>
+        <v>24807</v>
       </c>
       <c r="F6" s="184"/>
       <c r="I6" s="1"/>
@@ -16847,7 +16842,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="180">
-        <v>1048809.5999999996</v>
+        <v>859703.19999999925</v>
       </c>
       <c r="F7" s="184"/>
       <c r="H7" s="1"/>
@@ -16907,7 +16902,7 @@
         <v>54</v>
       </c>
       <c r="B9" s="156">
-        <v>32776</v>
+        <v>35831</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="152"/>
@@ -16946,7 +16941,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="157">
-        <v>830260</v>
+        <v>856930</v>
       </c>
       <c r="F10" s="184"/>
       <c r="H10" s="27"/>
@@ -16977,7 +16972,7 @@
       </c>
       <c r="B11" s="257">
         <f>B6-B9-B10</f>
-        <v>114781.6</v>
+        <v>125965.20000000001</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="152" t="s">
@@ -17019,7 +17014,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="180">
-        <v>859065</v>
+        <v>828725</v>
       </c>
       <c r="F12" s="184"/>
       <c r="H12" s="261"/>
@@ -17064,10 +17059,10 @@
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:28" ht="21.75">
-      <c r="A14" s="262" t="s">
+      <c r="A14" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="263">
+      <c r="B14" s="156">
         <v>6500000</v>
       </c>
       <c r="C14" s="32"/>
@@ -17173,7 +17168,7 @@
       </c>
       <c r="B18" s="156">
         <f>B5+B6-B9+B14-B16</f>
-        <v>15614781.6</v>
+        <v>15625965.199999999</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="152" t="s">
@@ -17181,7 +17176,7 @@
       </c>
       <c r="E18" s="157">
         <f>SUM(E5:E17)</f>
-        <v>15614781.6</v>
+        <v>15625965.199999999</v>
       </c>
       <c r="F18" s="184"/>
       <c r="G18" s="135">
@@ -17238,13 +17233,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="312" t="s">
+      <c r="A20" s="315" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="313"/>
-      <c r="C20" s="313"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="314"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="316"/>
+      <c r="D20" s="316"/>
+      <c r="E20" s="317"/>
       <c r="F20" s="184"/>
       <c r="G20" s="8"/>
       <c r="H20" s="1"/>
@@ -17362,17 +17357,17 @@
       <c r="G23" s="160"/>
     </row>
     <row r="24" spans="1:28" s="1" customFormat="1" ht="21.75">
-      <c r="A24" s="321" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="322">
-        <v>10000</v>
-      </c>
-      <c r="C24" s="323"/>
-      <c r="D24" s="324" t="s">
+      <c r="A24" s="265" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="325">
+      <c r="B24" s="266">
+        <v>117460</v>
+      </c>
+      <c r="C24" s="267"/>
+      <c r="D24" s="268" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="269">
         <v>33000</v>
       </c>
       <c r="F24" s="160"/>
